--- a/references/results-from-fairness-definitions-explained-summarized.xlsx
+++ b/references/results-from-fairness-definitions-explained-summarized.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caroline\Documents\DTU\Master_thesis\Fairness-oriented-interpretability-of-predictive-algorithms\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elisa\Documents\DTU\Fairness-oriented-interpretability-of-predictive-algorithms\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ADEE651-E721-4C58-92C2-C5B73EC61DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA03E8A-9BBD-4BB4-843F-7D9E9A382D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D9ABAE8-AC3C-4D22-9B12-AFDD7C697F7F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2D9ABAE8-AC3C-4D22-9B12-AFDD7C697F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>FNR-balance</t>
   </si>
@@ -98,6 +98,30 @@
   <si>
     <t xml:space="preserve">PPV = 0.74 and
 NPV = 0.63 </t>
+  </si>
+  <si>
+    <t>In our data</t>
+  </si>
+  <si>
+    <t>Deviations from article results</t>
+  </si>
+  <si>
+    <t>Lower values, but same picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.18 for both -&gt; same conclusion</t>
+  </si>
+  <si>
+    <t>Values close but barely fails</t>
+  </si>
+  <si>
+    <t>FPR again very different</t>
+  </si>
+  <si>
+    <t>Very similar results</t>
+  </si>
+  <si>
+    <t>Opposite picture compare to article (FPR 0.46 female and FPR 0.64 for men). Why?</t>
   </si>
 </sst>
 </file>
@@ -185,7 +209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -481,21 +505,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A249F581-20A2-4181-9542-0E3C59F54B6E}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -503,13 +528,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -522,8 +553,14 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -531,13 +568,19 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -545,13 +588,19 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -559,13 +608,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -573,13 +628,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -587,10 +648,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/references/results-from-fairness-definitions-explained-summarized.xlsx
+++ b/references/results-from-fairness-definitions-explained-summarized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elisa\Documents\DTU\Fairness-oriented-interpretability-of-predictive-algorithms\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA03E8A-9BBD-4BB4-843F-7D9E9A382D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBAEC27-D048-455A-8AE5-CA1F289CA187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2D9ABAE8-AC3C-4D22-9B12-AFDD7C697F7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>FNR-balance</t>
   </si>
@@ -106,22 +106,19 @@
     <t>Deviations from article results</t>
   </si>
   <si>
-    <t>Lower values, but same picture</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.18 for both -&gt; same conclusion</t>
-  </si>
-  <si>
     <t>Values close but barely fails</t>
   </si>
   <si>
-    <t>FPR again very different</t>
-  </si>
-  <si>
     <t>Very similar results</t>
   </si>
   <si>
-    <t>Opposite picture compare to article (FPR 0.46 female and FPR 0.64 for men). Why?</t>
+    <t>0.19 and 0.23 so now fails. Sligtly higher values for our regression</t>
+  </si>
+  <si>
+    <t>Similar picture, although our FPR are sligthly lower</t>
+  </si>
+  <si>
+    <t>Lower values, but same picture. Although the two rates are closer in our example</t>
   </si>
 </sst>
 </file>
@@ -508,7 +505,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,10 +551,10 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -568,16 +565,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -597,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -617,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -636,9 +633,6 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -657,7 +651,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
